--- a/ChangeDoc/Change Document Cargill-Kryptex.xlsx
+++ b/ChangeDoc/Change Document Cargill-Kryptex.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pramprak\Documents\implem\Cargill\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pramprak\Documents\implem\Change document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -57,14 +57,6 @@
 target : suse-linux/hana</t>
   </si>
   <si>
-    <t>1.If condition to check whether the DB is hana had an "or" condition.SO, when any of the condition was satisfied it got into the loop.
-2. The same loop was running for the execution of CI instance as well, wherein the loop had to run only for DB instance.</t>
-  </si>
-  <si>
-    <t>1."or" condition changed to "and" condition
-2."if" condition for DB changed to "elif" condition</t>
-  </si>
-  <si>
     <t>lin03</t>
   </si>
   <si>
@@ -94,7 +86,15 @@
     <t>1.The db user was written as "hdbsid", but it is "sidadm"</t>
   </si>
   <si>
-    <t>1.The user is changed to "sidadm"</t>
+    <t>1.If condition to check whether the DB is hana had an "or" condition.SO, when any of the condition was satisfied it got into the loop.
+2. The script has to run separately for CI and DB, but the both CI and DB are getting executed in the same run.</t>
+  </si>
+  <si>
+    <t>1.The control needs to get into the loop only when all the conditions are satisfied, so the "or" condition is changed to "and" condition. This ensures that the control does not get into the loop even if one of the condition fails.
+2. To make the CI and DB part to execute in separate run, the "if" condition of DB is changed to "elif", so that in one run only one of the condition gets satisfied.</t>
+  </si>
+  <si>
+    <t>1.The DB user that was present was "sidadm" not  "hdbsid(like in oracle)". So, the db user is changed to "sidadm".</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="E4:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,10 +583,10 @@
         <v>9</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="5:11" ht="58" x14ac:dyDescent="0.35">
@@ -598,17 +598,17 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E8" s="1">
         <v>3</v>
       </c>
@@ -617,11 +617,11 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>17</v>
